--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdTeamReward.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdTeamReward.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ED6F92-438D-46CE-A407-E1236B311243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745545FA-DFD1-403F-BBBE-C27DD2D69657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="96" windowWidth="17568" windowHeight="11676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -133,9 +124,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -309,6 +297,9 @@
   <si>
     <t>WorkMonthStart ASC,WorkMonthEnd ASC,TeamLevel ASC,RewardType ASC,RewardStandard ASC</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -554,9 +545,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -594,9 +585,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,26 +620,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,26 +655,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -877,7 +834,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -894,14 +851,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -911,10 +868,10 @@
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -922,11 +879,11 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="9"/>
@@ -935,7 +892,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="14"/>
@@ -946,11 +903,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="9"/>
@@ -959,7 +916,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
@@ -970,7 +927,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14"/>
@@ -981,7 +938,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>3</v>
@@ -1007,20 +964,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="16">
         <v>6</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1028,20 +985,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="16">
         <v>6</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -1049,20 +1006,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
@@ -1070,23 +1027,23 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1094,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="16">
         <v>16</v>
@@ -1110,7 +1067,7 @@
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1118,13 +1075,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="16">
         <v>16</v>
@@ -1134,7 +1091,7 @@
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1142,13 +1099,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="16">
         <v>16</v>
@@ -1158,7 +1115,7 @@
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1172,7 +1129,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -1185,10 +1142,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>9</v>
@@ -1206,13 +1163,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="D18" s="16" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1225,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>9</v>
@@ -1395,13 +1352,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
